--- a/Scripts/python/SourceTables/ForChimeras.xlsx
+++ b/Scripts/python/SourceTables/ForChimeras.xlsx
@@ -36,207 +36,138 @@
     <t>Связщенное дерево</t>
   </si>
   <si>
-    <t>24_11500_天生神木，隐约可见七星流转，用于升级幻兽专属特技#r#r提示：可在[5aef8e]幻兽-特技-特技升级[-]界面使用</t>
-  </si>
-  <si>
     <t>11501</t>
   </si>
   <si>
     <t>Приказ сброса</t>
   </si>
   <si>
-    <t>Сбрасывает очки статов Химеры#r#rПримените здесь: [5aef8e] Химера &gt; Очки статов[-]</t>
-  </si>
-  <si>
     <t>11502</t>
   </si>
   <si>
     <t>Камень роста</t>
   </si>
   <si>
-    <t>Камень роста используется для очистки темпа роста.#r#rПримените здесь: [5aef8e]Химера &gt; Разведение &gt; Рост[-]</t>
-  </si>
-  <si>
     <t>11503</t>
   </si>
   <si>
     <t>Камень силы</t>
   </si>
   <si>
-    <t>Камень силы используется для очистки свойств химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Разведение &gt; Свойства[-]</t>
-  </si>
-  <si>
     <t>11504</t>
   </si>
   <si>
     <t>Плоды Бодху</t>
   </si>
   <si>
-    <t>Волшебный плод, растущий в Суровом краю. Содержит энергию солнца, луны, небес и земли. Только достойные могут получить его. Используется для повышения восприятия химеры.#r#rПри каждом повышения уровня восприятия химеры свойства химеры также улучшаются.</t>
-  </si>
-  <si>
     <t>11506</t>
   </si>
   <si>
     <t>Аркан</t>
   </si>
   <si>
-    <t>Магический Аркан, используется для ловли Химер.#r#rПосле победы над Химерами, есть шанс появления приручаемого зверя. Нажмите на зверя, чтобы поймать его.#r#rПримените здесь: [5aef8e]Остров химер.[-]</t>
-  </si>
-  <si>
     <t>11520</t>
   </si>
   <si>
     <t>Пилюля зверя 1 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]2 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11521</t>
   </si>
   <si>
     <t>Пилюля зверя 2 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]8 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11522</t>
   </si>
   <si>
     <t>Пилюля зверя 3 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]16 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11523</t>
   </si>
   <si>
     <t>Пилюля зверя 4 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]26 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11524</t>
   </si>
   <si>
     <t>Пилюля зверя 5 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]36 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11525</t>
   </si>
   <si>
     <t>Пилюля зверя 6 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]48 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11526</t>
   </si>
   <si>
     <t>Пилюля зверя 7 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]59 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11527</t>
   </si>
   <si>
     <t>Пилюля зверя 8 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]72 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11528</t>
   </si>
   <si>
     <t>Пилюля зверя 9 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]84 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11529</t>
   </si>
   <si>
     <t>Пилюля зверя 10 ур.</t>
   </si>
   <si>
-    <t>Даёт [5aef8e]100 млн[-] опыта химеры.#r#rПримените здесь: [5aef8e]Химера &gt; Обучение.[-]</t>
-  </si>
-  <si>
     <t>11530</t>
   </si>
   <si>
     <t>Пилюля сгущения</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]50 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11531</t>
   </si>
   <si>
     <t>Пилюля сгущения S</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]100 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11532</t>
   </si>
   <si>
     <t>Пилюля сгущения 3 ур.</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]200 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11533</t>
   </si>
   <si>
     <t>Пилюля сгущения 4 ур.</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]500 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11534</t>
   </si>
   <si>
     <t>Пилюля сгущения 5 ур.</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]1000 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11535</t>
   </si>
   <si>
     <t>Пилюля сгущения 6 ур.</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]1500 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11536</t>
   </si>
   <si>
     <t>Пилюля сгущения 7 ур.</t>
   </si>
   <si>
-    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт [5aef8e]2000 очков[-] Сгущения.#r#rПримените здесь: [5aef8e]Химера &gt; Сгущение[-]</t>
-  </si>
-  <si>
     <t>11537</t>
   </si>
   <si>
@@ -261,16 +192,85 @@
     <t>Свиток переноса</t>
   </si>
   <si>
-    <t>Технология, изобретенная сотни лет назад неизвестным мудрецом, используется до сих пор.#r#rПримените здесь: [5aef8e]Химера &gt; Перенос[-]</t>
-  </si>
-  <si>
     <t>86200</t>
   </si>
   <si>
     <t>Ядро зверя</t>
   </si>
   <si>
-    <t>Соберите 100 шт. Ядер зверя, чтобы синтезировать Призрачное яйцо.#rПолученное яйцо продать нельзя.</t>
+    <t>24_11500_天生神木，隐约可见七星流转，用于升级幻兽专属特技.提示：可在幻兽-特技-特技升级界面使用</t>
+  </si>
+  <si>
+    <t>Сбрасывает очки статов Химеры.Примените здесь:  Химера &gt; Очки статов</t>
+  </si>
+  <si>
+    <t>Соберите 100 шт. Ядер зверя, чтобы синтезировать Призрачное яйцо. Полученное яйцо продать нельзя.</t>
+  </si>
+  <si>
+    <t>Камень роста используется для очистки темпа роста. Примените здесь: Химера &gt; Разведение &gt; Рост</t>
+  </si>
+  <si>
+    <t>Камень силы используется для очистки свойств химеры. Примените здесь: Химера &gt; Разведение &gt; Свойства</t>
+  </si>
+  <si>
+    <t>Волшебный плод, растущий в Суровом краю. Содержит энергию солнца, луны, небес и земли. Только достойные могут получить его. Используется для повышения восприятия химеры. При каждом повышения уровня восприятия химеры свойства химеры также улучшаются.</t>
+  </si>
+  <si>
+    <t>Магический Аркан, используется для ловли Химер. После победы над Химерами, есть шанс появления приручаемого зверя. Нажмите на зверя, чтобы поймать его. Примените здесь: Остров химер.</t>
+  </si>
+  <si>
+    <t>Даёт 2 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 8 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 16 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 26 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 36 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 48 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 59 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 72 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 84 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Даёт 100 млн опыта химеры. Примените здесь: Химера &gt; Обучение.</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 50 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 100 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 200 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 500 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 1000 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 1500 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Пилюля, изготовленная неизвестным мудрецом в недрах земли, используется для Сгущения химер. Даёт 2000 очков Сгущения. Примените здесь: Химера &gt; Сгущение</t>
+  </si>
+  <si>
+    <t>Технология, изобретенная сотни лет назад неизвестным мудрецом, используется до сих пор. Примените здесь: Химера &gt; Перенос</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +394,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,7 +706,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,305 +732,305 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
